--- a/data/case1/11/P2_14.xlsx
+++ b/data/case1/11/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.091495126376429425</v>
+        <v>0.073442253343571906</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999987339813856</v>
+        <v>-0.0099999993202786186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999987392275216</v>
+        <v>-0.0089999993301272951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398684037487598</v>
+        <v>0.28398601043740612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.063356620336462832</v>
+        <v>-0.0059999993539161522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999987233716467</v>
+        <v>-0.0059999993321717682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998555181975</v>
+        <v>-0.019999999202724439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998551200271</v>
+        <v>-0.019999999199528773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999987152625778</v>
+        <v>-0.0059999993256463213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999987146071021</v>
+        <v>-0.0059999993247572547</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.052536835689124928</v>
+        <v>0.053792536330671936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999987114340847</v>
+        <v>-0.005999999322115368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999986957306461</v>
+        <v>-0.0065524171825410704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998620134456</v>
+        <v>-0.01199999925252726</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999986887779855</v>
+        <v>-0.0059999993048709399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0012420565853439314</v>
+        <v>-0.0059999993024986154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999986821024365</v>
+        <v>-0.0059999992993624574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999986458444425</v>
+        <v>-0.0089999992711806698</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999987452245023</v>
+        <v>-0.008999999327577779</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999987358364564</v>
+        <v>-0.0089999993090827957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999987346853771</v>
+        <v>-0.054310343679125239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999987340965149</v>
+        <v>-0.0089999993045828397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999987288820193</v>
+        <v>-0.0089999993241285381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.051649633240398174</v>
+        <v>-0.041999999011197886</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998308727804</v>
+        <v>-0.041999999005809308</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999987200711757</v>
+        <v>-0.0059999993294930221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999987154721879</v>
+        <v>-0.0059999993259536311</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999986898837676</v>
+        <v>-0.0059999993117347827</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998603094753</v>
+        <v>-0.011999999246096849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.01999999850074996</v>
+        <v>-0.019999999167885196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998548818283</v>
+        <v>-0.014999999206350978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998475940806</v>
+        <v>-0.02099999915024231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999986538574746</v>
+        <v>-0.0059999992871206942</v>
       </c>
     </row>
   </sheetData>
